--- a/static/tempfile/testsave.xlsx
+++ b/static/tempfile/testsave.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>123</t>
+    <t>113</t>
   </si>
   <si>
-    <t>161</t>
+    <t>121</t>
   </si>
   <si>
-    <t>176</t>
+    <t>131</t>
   </si>
 </sst>
 </file>

--- a/static/tempfile/testsave.xlsx
+++ b/static/tempfile/testsave.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>113</t>
+    <t>111</t>
   </si>
   <si>
     <t>121</t>
-  </si>
-  <si>
-    <t>131</t>
   </si>
 </sst>
 </file>
@@ -380,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,14 +404,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
